--- a/Our_Labs/Lab_4/Lab_4.xlsx
+++ b/Our_Labs/Lab_4/Lab_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE7D79E4-182E-4D5D-A292-F6F229C2868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4589604-EAA0-464D-BA4E-44F65188EBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6ABC6EA7-95B5-4EB7-8382-A789AC46FAE8}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Zależność okresu drgań od rezystancji T(R)</t>
   </si>
@@ -45,11 +44,23 @@
     <t>T, ms</t>
   </si>
   <si>
-    <t>T,ms</t>
+    <t>C - C1, nF</t>
+  </si>
+  <si>
+    <t>Zależność okresu drgań od napięcia zasilania</t>
+  </si>
+  <si>
+    <t>U, V</t>
+  </si>
+  <si>
+    <t>Zależność okresu drgań od pojemności T(C)</t>
+  </si>
+  <si>
+    <t>C - C1 (nF)</t>
   </si>
   <si>
     <r>
-      <t>R, k</t>
+      <t>R (k</t>
     </r>
     <r>
       <rPr>
@@ -59,32 +70,17 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>Ω</t>
+      <t>Ω)</t>
     </r>
   </si>
   <si>
-    <t>R = 500kΩ</t>
+    <t>T (ms)</t>
   </si>
   <si>
-    <t>R = 900kΩ</t>
+    <t>R(kΩ)</t>
   </si>
   <si>
-    <t>R = 1300kΩ</t>
-  </si>
-  <si>
-    <t>C - C1, nF</t>
-  </si>
-  <si>
-    <t>C - C1,nF</t>
-  </si>
-  <si>
-    <t>Zależność okresu drgań od rezystancji T(C)</t>
-  </si>
-  <si>
-    <t>Zależność okresu drgań od napięcia zasilania</t>
-  </si>
-  <si>
-    <t>U, V</t>
+    <t>T(ms)</t>
   </si>
 </sst>
 </file>
@@ -108,15 +104,27 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,15 +132,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -221,7 +254,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10681285431165193"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.74943142544984298"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -561,6 +604,7 @@
         <c:axId val="1316525567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -643,7 +687,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -723,6 +767,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -741,6 +786,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność okresu drgań od rezystancji T(R)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -779,7 +849,7 @@
           <c:yMode val="edge"/>
           <c:x val="9.4692038495188105E-2"/>
           <c:y val="0.16708333333333336"/>
-          <c:w val="0.85219685039370074"/>
+          <c:w val="0.72590290344141761"/>
           <c:h val="0.72088764946048411"/>
         </c:manualLayout>
       </c:layout>
@@ -915,6 +985,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$A$5:$A$10</c:f>
@@ -1242,6 +1326,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2361,16 +2446,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>169718</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176646</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488373</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>474518</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297873</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>10391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2397,16 +2482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>100446</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>557647</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>193964</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6928</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595747</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2432,6 +2517,232 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01113</cdr:x>
+      <cdr:y>0.03662</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.10446</cdr:x>
+      <cdr:y>0.11742</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B939661-DE18-CF09-BAB6-9B71DAEA4744}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="63102" y="100445"/>
+          <a:ext cx="529180" cy="221674"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>T(ms)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87845</cdr:x>
+      <cdr:y>0.88763</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96993</cdr:x>
+      <cdr:y>0.97096</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA06D30-F0DC-22F9-2472-4C5763278FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5358053" y="2434936"/>
+          <a:ext cx="558028" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>C(nF)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02144</cdr:x>
+      <cdr:y>0.0617</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11111</cdr:x>
+      <cdr:y>0.15681</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC80FAC-2913-D944-1BC8-5375CBDCE8E9}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="114300" y="166255"/>
+          <a:ext cx="477981" cy="256309"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0065</cdr:x>
+      <cdr:y>0.03856</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.09422</cdr:x>
+      <cdr:y>0.14139</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B06A4C6-A2C4-477F-5131-3554C4B2C534}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="34636" y="103909"/>
+          <a:ext cx="467591" cy="277091"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>T(ms)</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85997</cdr:x>
+      <cdr:y>0.88432</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94466</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="pole tekstowe 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDF3919-8664-3F3C-7E86-EDC13DF9EBF0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5275117" y="2382982"/>
+          <a:ext cx="519546" cy="311727"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>R(k</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100">
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Ω</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2733,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA9AE06-1845-460E-B383-1A040F57105F}">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2746,246 +3057,256 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>1000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>4700</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>500</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>460</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>700</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>1720</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>700</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>680</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>1020</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>2560</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>900</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>920</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>1400</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>3520</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>1100</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>1220</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>1860</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>4600</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>1300</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1580</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>2400</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>6000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>1500</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>2010</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>3080</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>15300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
+      <c r="A17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4">
+        <v>500</v>
+      </c>
+      <c r="C17" s="4">
+        <v>900</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1300</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>100</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>460</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>920</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>1580</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>470</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>570</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>1150</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>1940</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>1000</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>710</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>1420</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>2420</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>2000</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>980</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>1980</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>3360</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>4700</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>1720</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>3480</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>5920</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>10000</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>3000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>6000</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>10400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -3065,11 +3386,12 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Our_Labs/Lab_4/Lab_4.xlsx
+++ b/Our_Labs/Lab_4/Lab_4.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4589604-EAA0-464D-BA4E-44F65188EBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC9E045-D2D3-401C-A951-CA622043F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6ABC6EA7-95B5-4EB7-8382-A789AC46FAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$A$19:$A$24</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$B$19:$B$24</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$C$19:$C$24</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$D$19:$D$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -151,21 +157,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -218,7 +223,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Zależność okresu drgań od rezystancji T(C)</a:t>
+              <a:t>Zależność okresu drgań od pojemności T(C)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -272,10 +277,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -374,10 +377,8 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -491,10 +492,8 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -860,10 +859,8 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -962,10 +959,8 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1064,10 +1059,8 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1087,12 +1080,26 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$A$5:$A$10</c:f>
+              <c:f>Arkusz1!$A$5:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -1107,19 +1114,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$D$5:$D$10</c:f>
+              <c:f>Arkusz1!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1720</c:v>
                 </c:pt>
@@ -1134,9 +1138,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,6 +1331,592 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność okresu drgań od pojemności T(C)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10681285431165193"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.74943142544984298"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$19:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F77-4DC9-968C-D4FEB31DE647}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$19:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7F77-4DC9-968C-D4FEB31DE647}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$19:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5920</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7F77-4DC9-968C-D4FEB31DE647}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1316525567"/>
+        <c:axId val="1184322175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1316525567"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="11000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184322175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1184322175"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1316525567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1410,6 +1997,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1927,6 +2554,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2511,6 +3654,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5833AE4-7EBA-4770-B479-53CFE3109130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2745,6 +3926,93 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01113</cdr:x>
+      <cdr:y>0.03662</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.10446</cdr:x>
+      <cdr:y>0.11742</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="pole tekstowe 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B939661-DE18-CF09-BAB6-9B71DAEA4744}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="63102" y="100445"/>
+          <a:ext cx="529180" cy="221674"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>T(ms)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.87845</cdr:x>
+      <cdr:y>0.88763</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96993</cdr:x>
+      <cdr:y>0.97096</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="pole tekstowe 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA06D30-F0DC-22F9-2472-4C5763278FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5358053" y="2434936"/>
+          <a:ext cx="558028" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>C(nF)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -3044,8 +4312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA9AE06-1845-460E-B383-1A040F57105F}">
   <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="K12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3057,117 +4325,117 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>100</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>1000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>4700</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>500</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>460</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>700</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>1720</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>700</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>680</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>1020</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>2560</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>900</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>920</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>1400</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>3520</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>1100</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>1220</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>1860</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>4600</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>1300</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>1580</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>2400</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>6000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>1500</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>2010</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>3080</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>15300</v>
       </c>
     </row>
@@ -3177,117 +4445,116 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>500</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>900</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>1300</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>100</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>460</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>920</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>1580</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>470</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>570</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>1150</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>1940</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>1000</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>710</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>1420</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>2420</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>2000</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>980</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>1980</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>3360</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>4700</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>1720</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>3480</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>5920</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>10000</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>3000</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>6000</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>10400</v>
       </c>
     </row>
@@ -3297,12 +4564,12 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">

--- a/Our_Labs/Lab_4/Lab_4.xlsx
+++ b/Our_Labs/Lab_4/Lab_4.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC9E045-D2D3-401C-A951-CA622043F45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134FFE8-9624-4547-AF7A-7D1D22BB6602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6ABC6EA7-95B5-4EB7-8382-A789AC46FAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$A$19:$A$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$B$19:$B$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$C$19:$C$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$D$19:$D$24</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Zależność okresu drgań od rezystancji T(R)</t>
   </si>
@@ -87,6 +103,21 @@
   </si>
   <si>
     <t>T(ms)</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>wart C1</t>
+  </si>
+  <si>
+    <t>Średnia</t>
+  </si>
+  <si>
+    <t>Odchylenie</t>
   </si>
 </sst>
 </file>
@@ -1917,6 +1948,388 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność okresu drgań T od napięcia zasilania U</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$33:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$33:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F19-4476-AB4B-0D28E036B271}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="815932672"/>
+        <c:axId val="2072317824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="815932672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2072317824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2072317824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815932672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2037,6 +2450,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3585,20 +4038,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>488373</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>148937</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107372</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>297873</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>10391</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>526472</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>45028</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3625,16 +4594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>557647</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>135084</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>595747</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>27710</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>173184</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3692,6 +4661,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>803564</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290946</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3669C265-2AC9-76E0-6A53-2DD13CF514D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4310,10 +5315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA9AE06-1845-460E-B383-1A040F57105F}">
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4324,7 +5329,7 @@
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4333,7 +5338,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -4347,15 +5352,29 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4:G8">LINEST(B5:B10,A5:A10,TRUE,TRUE)</f>
+        <v>1.5357142857142858</v>
+      </c>
+      <c r="G4">
+        <v>-390.71428571428578</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4:J8">LINEST(C5:C10,A5:A10,TRUE,TRUE)</f>
+        <v>2.3571428571428568</v>
+      </c>
+      <c r="J4">
+        <v>-613.80952380952363</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>500</v>
       </c>
@@ -4368,8 +5387,20 @@
       <c r="D5" s="3">
         <v>1720</v>
       </c>
+      <c r="F5">
+        <v>0.10045813423856668</v>
+      </c>
+      <c r="G5">
+        <v>106.1565715680138</v>
+      </c>
+      <c r="I5">
+        <v>0.16018696559201789</v>
+      </c>
+      <c r="J5">
+        <v>169.27349095244986</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>700</v>
       </c>
@@ -4382,8 +5413,20 @@
       <c r="D6" s="3">
         <v>2560</v>
       </c>
+      <c r="F6">
+        <v>0.98317175781964505</v>
+      </c>
+      <c r="G6">
+        <v>84.049305257602924</v>
+      </c>
+      <c r="I6">
+        <v>0.98186185290885952</v>
+      </c>
+      <c r="J6">
+        <v>134.02203088263073</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>900</v>
       </c>
@@ -4396,8 +5439,20 @@
       <c r="D7" s="3">
         <v>3520</v>
       </c>
+      <c r="F7">
+        <v>233.69565217391292</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>216.52969247083698</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1100</v>
       </c>
@@ -4410,8 +5465,20 @@
       <c r="D8" s="3">
         <v>4600</v>
       </c>
+      <c r="F8">
+        <v>1650892.857142857</v>
+      </c>
+      <c r="G8">
+        <v>28257.14285714287</v>
+      </c>
+      <c r="I8">
+        <v>3889285.7142857141</v>
+      </c>
+      <c r="J8">
+        <v>71847.619047619301</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1300</v>
       </c>
@@ -4425,7 +5492,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1500</v>
       </c>
@@ -4439,12 +5506,12 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -4452,7 +5519,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -4466,7 +5533,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -4474,7 +5541,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>100</v>
       </c>
@@ -4488,7 +5555,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>470</v>
       </c>
@@ -4501,8 +5568,20 @@
       <c r="D20" s="3">
         <v>1940</v>
       </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1000</v>
       </c>
@@ -4515,8 +5594,22 @@
       <c r="D21" s="3">
         <v>2420</v>
       </c>
+      <c r="F21" cm="1">
+        <f t="array" ref="F21:G25">LINEST(B19:B24,A19:A24,TRUE,TRUE)</f>
+        <v>0.25684783177276771</v>
+      </c>
+      <c r="G21">
+        <v>457.89835225192235</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21:J25">LINEST(C19:C24,A19:A24,TRUE,TRUE)</f>
+        <v>0.51396837021150465</v>
+      </c>
+      <c r="J21">
+        <v>926.63297937263474</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2000</v>
       </c>
@@ -4529,8 +5622,20 @@
       <c r="D22" s="3">
         <v>3360</v>
       </c>
+      <c r="F22">
+        <v>3.9327881769511842E-3</v>
+      </c>
+      <c r="G22">
+        <v>18.116520107056513</v>
+      </c>
+      <c r="I22">
+        <v>9.9050005543258914E-3</v>
+      </c>
+      <c r="J22">
+        <v>45.6277159178101</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>4700</v>
       </c>
@@ -4543,8 +5648,20 @@
       <c r="D23" s="3">
         <v>5920</v>
       </c>
+      <c r="F23">
+        <v>0.99906308065722027</v>
+      </c>
+      <c r="G23">
+        <v>33.298606520585686</v>
+      </c>
+      <c r="I23">
+        <v>0.99851662309665679</v>
+      </c>
+      <c r="J23">
+        <v>83.864856484686001</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>10000</v>
       </c>
@@ -4557,13 +5674,37 @@
       <c r="D24" s="3">
         <v>10400</v>
       </c>
+      <c r="F24">
+        <v>4265.3109399706009</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>2692.5500076109233</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>10</v>
       </c>
+      <c r="F25">
+        <v>4729364.8112151492</v>
+      </c>
+      <c r="G25">
+        <v>4435.1887848511669</v>
+      </c>
+      <c r="I25">
+        <v>18937550.076720543</v>
+      </c>
+      <c r="J25">
+        <v>28133.256612787922</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -4571,7 +5712,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -4649,6 +5790,95 @@
       </c>
       <c r="B41">
         <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2023</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2134</v>
+      </c>
+      <c r="B48">
+        <f>AVERAGE(A46:A60)</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2829</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2060</v>
+      </c>
+      <c r="B52">
+        <f>STDEVA(A46:A59)</f>
+        <v>486.05760975423482</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>3295</v>
       </c>
     </row>
   </sheetData>

--- a/Our_Labs/Lab_4/Lab_4.xlsx
+++ b/Our_Labs/Lab_4/Lab_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piter\Desktop\Git_repos\Fizyka\Our_Labs\Lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134FFE8-9624-4547-AF7A-7D1D22BB6602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89262DA-2CB3-45B3-8EC5-25C85A334F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6ABC6EA7-95B5-4EB7-8382-A789AC46FAE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ABC6EA7-95B5-4EB7-8382-A789AC46FAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -233,72 +233,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Zależność okresu drgań od pojemności T(C)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10681285431165193"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.74943142544984298"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.13554132830532567"/>
+          <c:y val="2.8194444444444459E-2"/>
+          <c:w val="0.82607916214122346"/>
+          <c:h val="0.84763382236784912"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -815,72 +760,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Zależność okresu drgań od rezystancji T(R)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4692038495188105E-2"/>
-          <c:y val="0.16708333333333336"/>
-          <c:w val="0.72590290344141761"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.12880987436439872"/>
+          <c:y val="3.8633199070252359E-2"/>
+          <c:w val="0.82321139205425409"/>
+          <c:h val="0.85534155504578913"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1376,72 +1266,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Zależność okresu drgań od pojemności T(C)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10681285431165193"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.74943142544984298"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.14602856260614483"/>
+          <c:y val="4.3987546883271965E-2"/>
+          <c:w val="0.8198537903350317"/>
+          <c:h val="0.81534706645397281"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1962,64 +1797,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t>Zależność okresu drgań T od napięcia zasilania U</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15180309482824003"/>
+          <c:y val="4.4627241145230201E-2"/>
+          <c:w val="0.81506221755421393"/>
+          <c:h val="0.80654000494606293"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4558,16 +4348,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>107372</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>3464</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214248</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>119247</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>526472</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>45028</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>605642</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>183078</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4595,15 +4385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>135084</xdr:colOff>
+      <xdr:colOff>135083</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>173184</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>173183</xdr:rowOff>
+      <xdr:colOff>367146</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4630,16 +4420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249382</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>20782</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4669,15 +4459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>803564</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>10391</xdr:rowOff>
+      <xdr:colOff>125896</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>290946</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:colOff>265044</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4702,6 +4492,122 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125896</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="510209" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="pole tekstowe 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B465D7-FD28-0082-18E5-51E519445CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2663688" y="5691809"/>
+          <a:ext cx="510209" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>T, ms</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>424071</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>145775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="510209" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="pole tekstowe 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4780F2B7-C8CB-4A97-849D-3F2D118A3BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7460975" y="8865705"/>
+          <a:ext cx="510209" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>U, V</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4709,12 +4615,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01113</cdr:x>
-      <cdr:y>0.03662</cdr:y>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.10446</cdr:x>
-      <cdr:y>0.11742</cdr:y>
+      <cdr:x>0.09333</cdr:x>
+      <cdr:y>0.0808</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4729,8 +4635,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="63102" y="100445"/>
-          <a:ext cx="529180" cy="221674"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="551161" cy="266708"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4742,7 +4648,15 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>T(ms)</a:t>
+            <a:t>T,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>ms</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -4750,12 +4664,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.87845</cdr:x>
-      <cdr:y>0.88763</cdr:y>
+      <cdr:x>0.92499</cdr:x>
+      <cdr:y>0.93525</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96993</cdr:x>
-      <cdr:y>0.97096</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4770,8 +4684,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5358053" y="2434936"/>
-          <a:ext cx="558028" cy="228600"/>
+          <a:off x="6000791" y="3592439"/>
+          <a:ext cx="486603" cy="248735"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4783,7 +4697,15 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>C(nF)</a:t>
+            <a:t>C,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>nF</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -4834,12 +4756,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.0065</cdr:x>
-      <cdr:y>0.03856</cdr:y>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.09422</cdr:x>
-      <cdr:y>0.14139</cdr:y>
+      <cdr:x>0.08772</cdr:x>
+      <cdr:y>0.10283</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4854,8 +4776,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="34636" y="103909"/>
-          <a:ext cx="467591" cy="277091"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="555098" cy="371837"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4867,7 +4789,15 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>T(ms)</a:t>
+            <a:t>T,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>ms</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -4878,11 +4808,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.85997</cdr:x>
-      <cdr:y>0.88432</cdr:y>
+      <cdr:x>0.91531</cdr:x>
+      <cdr:y>0.94179</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94466</cdr:x>
+      <cdr:x>1</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -4898,8 +4828,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5275117" y="2382982"/>
-          <a:ext cx="519546" cy="311727"/>
+          <a:off x="5792139" y="3405550"/>
+          <a:ext cx="535924" cy="210485"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4911,7 +4841,15 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>R(k</a:t>
+            <a:t>R,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>k</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1100">
@@ -4920,10 +4858,7 @@
             </a:rPr>
             <a:t>Ω</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -4935,12 +4870,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01113</cdr:x>
-      <cdr:y>0.03662</cdr:y>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.10446</cdr:x>
-      <cdr:y>0.11742</cdr:y>
+      <cdr:x>0.07558</cdr:x>
+      <cdr:y>0.0771</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4955,8 +4890,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="63102" y="100445"/>
-          <a:ext cx="529180" cy="221674"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="489550" cy="264901"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4968,7 +4903,15 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>T(ms)</a:t>
+            <a:t>T,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>ms</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -4976,12 +4919,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.87845</cdr:x>
-      <cdr:y>0.88763</cdr:y>
+      <cdr:x>0.90852</cdr:x>
+      <cdr:y>0.91667</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96993</cdr:x>
-      <cdr:y>0.97096</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -4996,8 +4939,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5358053" y="2434936"/>
-          <a:ext cx="558028" cy="228600"/>
+          <a:off x="5884484" y="3149611"/>
+          <a:ext cx="592516" cy="286316"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5009,7 +4952,15 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="pl-PL" sz="1100"/>
-            <a:t>C(nF)</a:t>
+            <a:t>C,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>nF</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -5317,8 +5268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA9AE06-1845-460E-B383-1A040F57105F}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Our_Labs/Lab_4/Lab_4.xlsx
+++ b/Our_Labs/Lab_4/Lab_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piter\Desktop\Git_repos\Fizyka\Our_Labs\Lab_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89262DA-2CB3-45B3-8EC5-25C85A334F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159F10B-27B3-4918-9EAC-4D40B130C8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ABC6EA7-95B5-4EB7-8382-A789AC46FAE8}"/>
+    <workbookView minimized="1" xWindow="7845" yWindow="5280" windowWidth="14250" windowHeight="11385" xr2:uid="{6ABC6EA7-95B5-4EB7-8382-A789AC46FAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -631,7 +631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184322175"/>
@@ -693,7 +693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1316525567"/>
@@ -734,7 +734,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1137,7 +1137,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1185904079"/>
@@ -1199,7 +1199,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="101118159"/>
@@ -1240,7 +1240,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1666,7 +1666,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184322175"/>
@@ -1730,7 +1730,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1316525567"/>
@@ -1771,7 +1771,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1999,7 +1999,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2072317824"/>
@@ -2061,7 +2061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="815932672"/>
@@ -2109,7 +2109,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5268,19 +5268,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA9AE06-1845-460E-B383-1A040F57105F}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>-613.80952380952363</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>500</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>169.27349095244986</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>700</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>134.02203088263073</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>900</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1100</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>71847.619047619301</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1300</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1500</v>
       </c>
@@ -5457,12 +5457,12 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>100</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>470</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1000</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>926.63297937263474</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2000</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>45.6277159178101</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4700</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>83.864856484686001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>10000</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>10</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>28133.256612787922</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>110</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>115</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>120</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>125</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>130</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>135</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>140</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>145</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>150</v>
       </c>
@@ -5743,17 +5743,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1911</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2023</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2134</v>
       </c>
@@ -5770,17 +5770,17 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2324</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2557</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2829</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2060</v>
       </c>
@@ -5797,37 +5797,37 @@
         <v>486.05760975423482</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2185</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2400</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2695</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3035</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3452</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2800</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3295</v>
       </c>
